--- a/Exp_log.xlsx
+++ b/Exp_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasegawa-lab-pc\OneDrive - Japan Advanced Institute of Science and Technology\Documents\git\Shofi_Engagement-Model-LSTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hasegawa-lab/OneDrive - Japan Advanced Institute of Science and Technology/Documents/git/Shofi_Engagement-Model-LSTM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70870B6D-7651-437A-B938-5E6F2548A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E987EF-E90C-D44D-893C-BACDDD14E0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="18720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37620" yWindow="-1260" windowWidth="28800" windowHeight="23900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="PerSubject" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">PerSubject!$A$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">PerSubject!$A$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">PerSubject!$A$28</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">PerSubject!$A$29</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">PerSubject!$A$6</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">PerSubject!$A$7</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">PerSubject!$A$8</definedName>
@@ -32,31 +32,31 @@
     <definedName name="_xlchart.v1.15" hidden="1">PerSubject!$B$6:$DJ$6</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">PerSubject!$B$7:$DJ$7</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">PerSubject!$B$8:$DJ$8</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">PerSubject!$A$17</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">PerSubject!$A$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">PerSubject!$A$7</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">PerSubject!$A$19</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">PerSubject!$A$20</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">PerSubject!$B$16:$V$16</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">PerSubject!$B$17:$V$17</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">PerSubject!$B$18:$V$18</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">PerSubject!$B$19:$V$19</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">PerSubject!$B$20:$V$20</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">PerSubject!$A$28</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">PerSubject!$A$29</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">PerSubject!$A$30</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">PerSubject!$A$8</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">PerSubject!$A$31</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">PerSubject!$B$27:$W$27</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">PerSubject!$B$28:$W$28</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">PerSubject!$B$29:$W$29</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">PerSubject!$B$30:$W$30</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">PerSubject!$B$31:$W$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">PerSubject!$B$4:$BS$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">PerSubject!$B$5:$BS$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">PerSubject!$B$6:$BS$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">PerSubject!$B$7:$BS$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">PerSubject!$B$8:$BS$8</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">PerSubject!$A$5</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">PerSubject!$A$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">PerSubject!$A$30</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">PerSubject!$A$7</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">PerSubject!$A$8</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">PerSubject!$B$4:$BS$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">PerSubject!$B$5:$BS$5</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">PerSubject!$B$6:$BS$6</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">PerSubject!$B$7:$BS$7</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">PerSubject!$B$8:$BS$8</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">PerSubject!$A$17</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">PerSubject!$A$18</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">PerSubject!$A$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">PerSubject!$A$31</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">PerSubject!$A$20</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">PerSubject!$B$16:$V$16</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">PerSubject!$B$17:$V$17</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">PerSubject!$B$18:$V$18</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">PerSubject!$B$19:$V$19</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">PerSubject!$B$20:$V$20</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">PerSubject!$B$27:$W$27</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">PerSubject!$B$28:$W$28</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">PerSubject!$B$29:$W$29</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">PerSubject!$B$30:$W$30</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">PerSubject!$B$31:$W$31</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">PerSubject!$A$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1307">
   <si>
     <t>Date</t>
   </si>
@@ -4903,6 +4903,42 @@
   </si>
   <si>
     <t>Multilayer-LSTM</t>
+  </si>
+  <si>
+    <t>Logistic Regression (LR)</t>
+  </si>
+  <si>
+    <t>Averaged frames (1 timestep)</t>
+  </si>
+  <si>
+    <t>Single validation</t>
+  </si>
+  <si>
+    <t>5-fold Cross-Validation</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mean Accuracy</t>
+  </si>
+  <si>
+    <t>0.502 (0.006)</t>
+  </si>
+  <si>
+    <t>0.822 (0.097)</t>
+  </si>
+  <si>
+    <t>0.779 (0.102)</t>
+  </si>
+  <si>
+    <t>0.820 (0.123)</t>
+  </si>
+  <si>
+    <t>0.811 (0.103)</t>
+  </si>
+  <si>
+    <t>0.747 (0.068)</t>
   </si>
 </sst>
 </file>
@@ -5137,7 +5173,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5336,10 +5372,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5351,8 +5387,14 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="47" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -5377,34 +5419,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.31</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.23</cx:f>
+        <cx:f dir="row">_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.31</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.24</cx:f>
+        <cx:f dir="row">_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.31</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.25</cx:f>
+        <cx:f dir="row">_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.31</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.26</cx:f>
+        <cx:f dir="row">_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5458,7 +5500,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{65DEB3F8-50A4-2646-8163-B968FB8CFB85}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.27</cx:f>
               <cx:v>MSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5470,7 +5512,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1A8C7262-C375-7345-9DA3-D6300EA5E28B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>Accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5482,7 +5524,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C93A3D52-178B-7843-8501-2F47E0B84416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.29</cx:f>
               <cx:v>F1-Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5494,7 +5536,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B69481D6-8BB3-6645-BC9C-ACBF227DBFE7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>Fbeta</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5524,34 +5566,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.31</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.32</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.31</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.33</cx:f>
+        <cx:f dir="row">_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.31</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.34</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.31</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.35</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5605,7 +5647,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{412F6C93-C285-F847-9EC3-B9E5007E88F3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.27</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>MSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5617,7 +5659,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{04986ACB-3654-2741-9193-F62BF8544971}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5629,7 +5671,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BB4A1AEE-DAFA-5247-8014-0C330D0E7EE9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>F1-Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5641,7 +5683,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7018F17A-CCC7-EE4F-8248-733C510258AA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Fbeta</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5671,34 +5713,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.22</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.22</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
+        <cx:f dir="row">_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.22</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.22</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5752,7 +5794,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2326AB8D-B746-9A42-96FE-6B8FFB7D10EE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>MSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5764,7 +5806,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EE3A5E32-D348-184B-B6D0-2AAE7165F954}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>Accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5776,7 +5818,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{267D99D1-4CCB-D14F-954E-60B50D7C9FB6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>F1-Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5788,7 +5830,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2F20C3A3-4325-BE4F-B874-F00C5F80EA5E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.21</cx:f>
               <cx:v>Fbeta</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8181,8 +8223,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1190631" y="7624762"/>
-              <a:ext cx="5905494" cy="2743200"/>
+              <a:off x="1355731" y="7624762"/>
+              <a:ext cx="6730994" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8259,8 +8301,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1181105" y="10682287"/>
-              <a:ext cx="5905495" cy="2743200"/>
+              <a:off x="1346205" y="10682287"/>
+              <a:ext cx="6657970" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8337,8 +8379,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1181105" y="13730287"/>
-              <a:ext cx="8267695" cy="2852738"/>
+              <a:off x="1273180" y="13730287"/>
+              <a:ext cx="9423395" cy="2852738"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8415,8 +8457,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4876804" y="7319961"/>
-              <a:ext cx="12306296" cy="3757613"/>
+              <a:off x="5537204" y="7319961"/>
+              <a:ext cx="14039846" cy="3757613"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8753,21 +8795,21 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="31" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="7" max="7" width="16.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="5"/>
     <col min="9" max="10" width="11" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="5" customWidth="1"/>
-    <col min="12" max="13" width="25.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="5" customWidth="1"/>
+    <col min="12" max="13" width="25.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -8800,7 +8842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56"/>
       <c r="B2" s="64"/>
       <c r="C2" s="56"/>
@@ -8829,7 +8871,7 @@
       <c r="L2" s="59"/>
       <c r="M2" s="59"/>
     </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -8858,7 +8900,7 @@
         <v>51.54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="B4" s="66"/>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -8885,7 +8927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="B5" s="67"/>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -8912,7 +8954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -8945,7 +8987,7 @@
       </c>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="B7" s="66"/>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -8975,7 +9017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="67"/>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -9012,7 +9054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="60" t="s">
         <v>36</v>
       </c>
@@ -9048,7 +9090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
       <c r="C10" s="2" t="s">
         <v>40</v>
@@ -9076,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="62"/>
       <c r="C11" s="2" t="s">
         <v>42</v>
@@ -9107,7 +9149,7 @@
         <v>2392750.693</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
@@ -9134,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="144" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>44280</v>
       </c>
@@ -9167,7 +9209,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="160" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
@@ -9188,7 +9230,7 @@
         <v>136604.402</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>44303</v>
       </c>
@@ -9223,18 +9265,18 @@
       <selection pane="bottomRight" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="14" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C1" s="14" t="s">
         <v>50</v>
       </c>
@@ -9251,7 +9293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>239</v>
       </c>
@@ -9265,7 +9307,7 @@
       <c r="E2" s="71"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>15</v>
       </c>
@@ -9283,7 +9325,7 @@
       </c>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="14">
         <v>75</v>
       </c>
@@ -9298,12 +9340,12 @@
       </c>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>112</v>
       </c>
@@ -9321,7 +9363,7 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>113</v>
       </c>
@@ -9339,7 +9381,7 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>65</v>
       </c>
@@ -9357,7 +9399,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>114</v>
       </c>
@@ -9375,7 +9417,7 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>72</v>
       </c>
@@ -9392,7 +9434,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="14">
         <v>75</v>
       </c>
@@ -9406,7 +9448,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="14">
         <v>30</v>
       </c>
@@ -9420,7 +9462,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="D13" s="16" t="s">
         <v>82</v>
       </c>
@@ -9429,7 +9471,7 @@
       </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>85</v>
       </c>
@@ -9437,7 +9479,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>84</v>
       </c>
@@ -9454,7 +9496,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>94</v>
       </c>
@@ -9471,7 +9513,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>98</v>
       </c>
@@ -9491,7 +9533,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>101</v>
       </c>
@@ -9507,7 +9549,7 @@
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>106</v>
       </c>
@@ -9525,7 +9567,7 @@
       </c>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>109</v>
       </c>
@@ -9539,12 +9581,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>117</v>
       </c>
@@ -9564,7 +9606,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
         <v>118</v>
       </c>
@@ -9584,7 +9626,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
@@ -9601,7 +9643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>126</v>
       </c>
@@ -9621,7 +9663,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>129</v>
       </c>
@@ -9635,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>130</v>
       </c>
@@ -9652,7 +9694,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>133</v>
       </c>
@@ -9666,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -9686,7 +9728,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>141</v>
       </c>
@@ -9704,7 +9746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>136</v>
       </c>
@@ -9724,7 +9766,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>151</v>
       </c>
@@ -9744,7 +9786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>152</v>
       </c>
@@ -9764,7 +9806,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>155</v>
       </c>
@@ -9781,7 +9823,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>159</v>
       </c>
@@ -9795,7 +9837,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>161</v>
       </c>
@@ -9809,7 +9851,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>165</v>
       </c>
@@ -9826,12 +9868,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>176</v>
       </c>
@@ -9851,7 +9893,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
         <v>44322</v>
       </c>
@@ -9862,7 +9904,7 @@
       <c r="F45" s="30"/>
       <c r="G45" s="29"/>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>186</v>
       </c>
@@ -9879,23 +9921,23 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="34" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>182</v>
       </c>
@@ -9912,7 +9954,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>183</v>
       </c>
@@ -9929,7 +9971,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>195</v>
       </c>
@@ -9946,7 +9988,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>177</v>
       </c>
@@ -9963,7 +10005,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>185</v>
       </c>
@@ -9980,7 +10022,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>207</v>
       </c>
@@ -9997,12 +10039,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>214</v>
       </c>
@@ -10019,17 +10061,17 @@
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="34" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>185</v>
       </c>
@@ -10046,12 +10088,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="34" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>185</v>
       </c>
@@ -10068,7 +10110,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>177</v>
       </c>
@@ -10085,7 +10127,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>195</v>
       </c>
@@ -10102,7 +10144,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>183</v>
       </c>
@@ -10119,12 +10161,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="33" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>183</v>
       </c>
@@ -10141,7 +10183,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>185</v>
       </c>
@@ -10158,7 +10200,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="34" t="s">
         <v>253</v>
       </c>
@@ -10175,7 +10217,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="34" t="s">
         <v>252</v>
       </c>
@@ -10192,7 +10234,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
         <v>254</v>
       </c>
@@ -10212,7 +10254,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>259</v>
       </c>
@@ -10230,7 +10272,7 @@
       </c>
       <c r="G78" s="72"/>
     </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>264</v>
       </c>
@@ -10250,7 +10292,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
         <v>270</v>
       </c>
@@ -10268,7 +10310,7 @@
       </c>
       <c r="G80" s="73"/>
     </row>
-    <row r="81" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>279</v>
       </c>
@@ -10291,7 +10333,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>282</v>
       </c>
@@ -10312,7 +10354,7 @@
       </c>
       <c r="H82" s="72"/>
     </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>288</v>
       </c>
@@ -10330,7 +10372,7 @@
       </c>
       <c r="H83" s="72"/>
     </row>
-    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
         <v>293</v>
       </c>
@@ -10342,7 +10384,7 @@
       </c>
       <c r="H84" s="72"/>
     </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
         <v>295</v>
       </c>
@@ -10351,7 +10393,7 @@
       </c>
       <c r="H85" s="72"/>
     </row>
-    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
         <v>310</v>
       </c>
@@ -10368,7 +10410,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B87" s="16" t="s">
         <v>317</v>
       </c>
@@ -10385,7 +10427,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B88" s="14" t="s">
         <v>306</v>
       </c>
@@ -10402,7 +10444,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
         <v>309</v>
       </c>
@@ -10425,7 +10467,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B90" s="16" t="s">
         <v>316</v>
       </c>
@@ -10442,7 +10484,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="14" t="s">
         <v>306</v>
       </c>
@@ -10459,7 +10501,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
         <v>320</v>
       </c>
@@ -10479,7 +10521,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B93" s="16" t="s">
         <v>316</v>
       </c>
@@ -10496,7 +10538,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
         <v>341</v>
       </c>
@@ -10513,7 +10555,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
         <v>343</v>
       </c>
@@ -10530,7 +10572,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
         <v>344</v>
       </c>
@@ -10550,7 +10592,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
         <v>345</v>
       </c>
@@ -10567,7 +10609,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
         <v>346</v>
       </c>
@@ -10584,12 +10626,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="224" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
         <v>1215</v>
       </c>
@@ -10597,7 +10639,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="271.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
         <v>1218</v>
       </c>
@@ -10605,7 +10647,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
         <v>1220</v>
       </c>
@@ -10613,7 +10655,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
         <v>1222</v>
       </c>
@@ -10621,7 +10663,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="49" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" s="49" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="47" t="s">
         <v>1230</v>
       </c>
@@ -10634,7 +10676,7 @@
       </c>
       <c r="G107" s="48"/>
     </row>
-    <row r="108" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>1224</v>
       </c>
@@ -10646,7 +10688,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>1225</v>
       </c>
@@ -10658,7 +10700,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>1228</v>
       </c>
@@ -10666,7 +10708,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
         <v>1248</v>
       </c>
@@ -10674,7 +10716,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="285" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
         <v>1236</v>
       </c>
@@ -10682,7 +10724,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A113" s="16" t="s">
         <v>1233</v>
       </c>
@@ -10690,7 +10732,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
         <v>1235</v>
       </c>
@@ -10698,7 +10740,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
         <v>1238</v>
       </c>
@@ -10706,7 +10748,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
         <v>1240</v>
       </c>
@@ -10714,7 +10756,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
         <v>1250</v>
       </c>
@@ -10722,7 +10764,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
         <v>1252</v>
       </c>
@@ -10730,7 +10772,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
         <v>1274</v>
       </c>
@@ -10741,7 +10783,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
         <v>1277</v>
       </c>
@@ -10749,7 +10791,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
         <v>1266</v>
       </c>
@@ -10757,7 +10799,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
         <v>1237</v>
       </c>
@@ -10765,7 +10807,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A123" s="16" t="s">
         <v>1242</v>
       </c>
@@ -10773,7 +10815,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A124" s="16" t="s">
         <v>1250</v>
       </c>
@@ -10781,7 +10823,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="284.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="16" t="s">
         <v>1246</v>
       </c>
@@ -10791,7 +10833,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>1254</v>
       </c>
@@ -10799,7 +10841,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
         <v>1258</v>
       </c>
@@ -10807,7 +10849,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
         <v>1260</v>
       </c>
@@ -10815,7 +10857,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
         <v>1262</v>
       </c>
@@ -10823,7 +10865,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
         <v>1266</v>
       </c>
@@ -10831,7 +10873,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
         <v>1270</v>
       </c>
@@ -10842,7 +10884,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
         <v>1256</v>
       </c>
@@ -10850,7 +10892,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
         <v>1264</v>
       </c>
@@ -10858,7 +10900,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>1268</v>
       </c>
@@ -10866,7 +10908,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>1279</v>
       </c>
@@ -10894,18 +10936,18 @@
       <selection activeCell="A4" sqref="A4:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="18" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="18"/>
+    <col min="1" max="1" width="13.33203125" style="18" customWidth="1"/>
+    <col min="2" max="6" width="9.1640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>90</v>
       </c>
@@ -10925,7 +10967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
@@ -10946,7 +10988,7 @@
         <v>5358</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
@@ -10967,7 +11009,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>93</v>
       </c>
@@ -10988,7 +11030,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>91</v>
       </c>
@@ -11013,7 +11055,7 @@
         <v>8571</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>90</v>
       </c>
@@ -11033,7 +11075,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>92</v>
       </c>
@@ -11054,7 +11096,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
@@ -11075,7 +11117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>91</v>
       </c>
@@ -11115,41 +11157,41 @@
       <selection pane="topRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -11190,7 +11232,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>364</v>
       </c>
@@ -11231,7 +11273,7 @@
         <v>0.47139999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>354</v>
       </c>
@@ -11272,7 +11314,7 @@
         <v>0.47420000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>355</v>
       </c>
@@ -11313,7 +11355,7 @@
         <v>0.46179999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>356</v>
       </c>
@@ -11354,7 +11396,7 @@
         <v>0.47920000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>357</v>
       </c>
@@ -11395,7 +11437,7 @@
         <v>0.49209999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>360</v>
       </c>
@@ -11436,29 +11478,29 @@
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="75" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75" t="s">
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75" t="s">
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>358</v>
       </c>
@@ -11499,7 +11541,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>364</v>
       </c>
@@ -11532,7 +11574,7 @@
       </c>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>354</v>
       </c>
@@ -11561,7 +11603,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>355</v>
       </c>
@@ -11590,7 +11632,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>356</v>
       </c>
@@ -11619,7 +11661,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -11648,7 +11690,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>360</v>
       </c>
@@ -11677,34 +11719,34 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75" t="s">
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75" t="s">
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>359</v>
       </c>
@@ -11742,7 +11784,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -11783,7 +11825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>354</v>
       </c>
@@ -11824,7 +11866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>355</v>
       </c>
@@ -11865,7 +11907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>356</v>
       </c>
@@ -11906,7 +11948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>357</v>
       </c>
@@ -11947,7 +11989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>360</v>
       </c>
@@ -11988,34 +12030,34 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="75" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75" t="s">
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75" t="s">
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75" t="s">
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>359</v>
       </c>
@@ -12053,7 +12095,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>364</v>
       </c>
@@ -12094,7 +12136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>355</v>
       </c>
@@ -12135,7 +12177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>356</v>
       </c>
@@ -12176,7 +12218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>357</v>
       </c>
@@ -12217,7 +12259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>360</v>
       </c>
@@ -12258,29 +12300,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="75" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75" t="s">
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75" t="s">
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -12321,7 +12363,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>364</v>
       </c>
@@ -12362,7 +12404,7 @@
         <v>0.4259</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>355</v>
       </c>
@@ -12403,7 +12445,7 @@
         <v>0.49159999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>356</v>
       </c>
@@ -12444,7 +12486,7 @@
         <v>0.4753</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>357</v>
       </c>
@@ -12485,7 +12527,7 @@
         <v>0.50509999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>360</v>
       </c>
@@ -12526,29 +12568,29 @@
         <v>0.47470000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="75" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75" t="s">
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75" t="s">
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75" t="s">
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>358</v>
       </c>
@@ -12589,7 +12631,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>364</v>
       </c>
@@ -12622,7 +12664,7 @@
       </c>
       <c r="M49" s="38"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>355</v>
       </c>
@@ -12651,7 +12693,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>356</v>
       </c>
@@ -12680,7 +12722,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>357</v>
       </c>
@@ -12709,7 +12751,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>360</v>
       </c>
@@ -12738,34 +12780,34 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="31" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="75" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B56" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75" t="s">
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75" t="s">
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75" t="s">
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>359</v>
       </c>
@@ -12803,7 +12845,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>364</v>
       </c>
@@ -12844,7 +12886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>355</v>
       </c>
@@ -12885,7 +12927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>356</v>
       </c>
@@ -12926,7 +12968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>357</v>
       </c>
@@ -12967,7 +13009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>360</v>
       </c>
@@ -13005,29 +13047,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="75" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B64" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75" t="s">
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75" t="s">
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75" t="s">
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -13068,7 +13110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>364</v>
       </c>
@@ -13109,7 +13151,7 @@
         <v>0.45569999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>355</v>
       </c>
@@ -13150,7 +13192,7 @@
         <v>0.45679999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>356</v>
       </c>
@@ -13191,7 +13233,7 @@
         <v>0.4456</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>357</v>
       </c>
@@ -13232,7 +13274,7 @@
         <v>0.50729999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>360</v>
       </c>
@@ -13273,29 +13315,29 @@
         <v>0.47920000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="75" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B72" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75" t="s">
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="75" t="s">
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="I72" s="75"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="75" t="s">
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="L72" s="75"/>
-      <c r="M72" s="75"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L72" s="74"/>
+      <c r="M72" s="74"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>358</v>
       </c>
@@ -13336,7 +13378,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>364</v>
       </c>
@@ -13377,7 +13419,7 @@
         <v>0.56989999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>355</v>
       </c>
@@ -13418,7 +13460,7 @@
         <v>0.58189999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>356</v>
       </c>
@@ -13459,7 +13501,7 @@
         <v>0.51080000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>357</v>
       </c>
@@ -13500,7 +13542,7 @@
         <v>0.57820000000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>360</v>
       </c>
@@ -13541,27 +13583,27 @@
         <v>0.52910000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="50">
         <v>44930</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="50"/>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="75" t="s">
         <v>1281</v>
       </c>
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="74"/>
-      <c r="I81" s="74"/>
-      <c r="J81" s="74"/>
-    </row>
-    <row r="82" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="75"/>
+    </row>
+    <row r="82" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="55" t="s">
         <v>1283</v>
       </c>
@@ -13590,7 +13632,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="51" t="s">
         <v>1292</v>
       </c>
@@ -13622,7 +13664,7 @@
         <v>5.1723379629629634E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="51" t="s">
         <v>1288</v>
       </c>
@@ -13654,7 +13696,7 @@
         <v>3.5156249999999993E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="51" t="s">
         <v>1289</v>
       </c>
@@ -13687,7 +13729,7 @@
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>356</v>
       </c>
@@ -13719,7 +13761,7 @@
         <v>3.0296296296296294E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>357</v>
       </c>
@@ -13751,7 +13793,7 @@
         <v>2.9039351851851855E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>360</v>
       </c>
@@ -13783,21 +13825,21 @@
         <v>4.004166666666666E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="50"/>
-      <c r="B90" s="74" t="s">
+      <c r="B90" s="75" t="s">
         <v>351</v>
       </c>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="74"/>
-    </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+    </row>
+    <row r="91" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B91" s="55" t="s">
         <v>1283</v>
       </c>
@@ -13826,7 +13868,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="51" t="s">
         <v>1292</v>
       </c>
@@ -13858,7 +13900,7 @@
         <v>1.578391203703704E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="51" t="s">
         <v>1288</v>
       </c>
@@ -13893,7 +13935,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="51" t="s">
         <v>1289</v>
       </c>
@@ -13926,7 +13968,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>356</v>
       </c>
@@ -13958,7 +14000,7 @@
         <v>7.9629629629629636E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>357</v>
       </c>
@@ -13990,7 +14032,7 @@
         <v>9.0398148148148163E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>360</v>
       </c>
@@ -14022,21 +14064,21 @@
         <v>9.7219907407407411E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="50"/>
-      <c r="B99" s="74" t="s">
+      <c r="B99" s="75" t="s">
         <v>1290</v>
       </c>
-      <c r="C99" s="74"/>
-      <c r="D99" s="74"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="74"/>
-      <c r="J99" s="74"/>
-    </row>
-    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+    </row>
+    <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B100" s="55" t="s">
         <v>1283</v>
       </c>
@@ -14065,7 +14107,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="51" t="s">
         <v>1292</v>
       </c>
@@ -14097,7 +14139,7 @@
         <v>1.0768055555555555E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="51" t="s">
         <v>1288</v>
       </c>
@@ -14129,7 +14171,7 @@
         <v>1.4896180555555554E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="51" t="s">
         <v>1289</v>
       </c>
@@ -14161,7 +14203,7 @@
         <v>1.187037037037037E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>356</v>
       </c>
@@ -14193,7 +14235,7 @@
         <v>2.030925925925926E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>357</v>
       </c>
@@ -14225,7 +14267,7 @@
         <v>9.5667824074074069E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>360</v>
       </c>
@@ -14257,21 +14299,21 @@
         <v>9.5641203703703697E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="50"/>
-      <c r="B108" s="74" t="s">
+      <c r="B108" s="75" t="s">
         <v>1291</v>
       </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="74"/>
-    </row>
-    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C108" s="75"/>
+      <c r="D108" s="75"/>
+      <c r="E108" s="75"/>
+      <c r="F108" s="75"/>
+      <c r="G108" s="75"/>
+      <c r="H108" s="75"/>
+      <c r="I108" s="75"/>
+      <c r="J108" s="75"/>
+    </row>
+    <row r="109" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B109" s="55" t="s">
         <v>1283</v>
       </c>
@@ -14300,7 +14342,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="51" t="s">
         <v>1292</v>
       </c>
@@ -14332,7 +14374,7 @@
         <v>5.465972222222223E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="51" t="s">
         <v>1288</v>
       </c>
@@ -14364,7 +14406,7 @@
         <v>5.605902777777778E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="51" t="s">
         <v>1289</v>
       </c>
@@ -14396,7 +14438,7 @@
         <v>6.6702546296296301E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>356</v>
       </c>
@@ -14428,7 +14470,7 @@
         <v>6.5741898148148148E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>357</v>
       </c>
@@ -14460,7 +14502,7 @@
         <v>4.7697916666666662E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>360</v>
       </c>
@@ -14494,15 +14536,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="B81:J81"/>
+    <mergeCell ref="B90:J90"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B108:J108"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:J19"/>
@@ -14515,25 +14567,15 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="B81:J81"/>
-    <mergeCell ref="B90:J90"/>
-    <mergeCell ref="B99:J99"/>
-    <mergeCell ref="B108:J108"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14542,278 +14584,416 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90611C2D-F58B-4BFE-9CEC-1E66C3B42A8A}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="50">
         <v>44931</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
-      <c r="B2" s="74" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="50"/>
+      <c r="B3" s="74" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="50"/>
+      <c r="B4" s="75" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+    </row>
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B5" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B6" s="80">
+        <v>0.52166699999999999</v>
+      </c>
+      <c r="C6" s="80"/>
+      <c r="D6" s="55">
+        <v>0.32955400000000001</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J6" s="79">
+        <v>2.6041666666666666E-6</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L6" s="37">
+        <v>1.9282407407407407E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="50"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="50"/>
+      <c r="B10" s="75" t="s">
         <v>1293</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-    </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B11" s="55" t="s">
         <v>1283</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C11" s="55" t="s">
         <v>1284</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D11" s="55" t="s">
         <v>1285</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E11" s="55" t="s">
         <v>1286</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F11" s="55" t="s">
         <v>1210</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G11" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H11" s="55" t="s">
         <v>1287</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I11" s="55" t="s">
         <v>1213</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J11" s="55" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="K11" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B12" s="55">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="C12" s="55">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="F12" s="55">
+        <v>1.1133999999999999</v>
+      </c>
+      <c r="G12" s="55">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="H12" s="55">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="I12" s="55">
+        <v>0.3397</v>
+      </c>
+      <c r="J12" s="79">
+        <v>1.5057986111111114E-3</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L12" s="37">
+        <v>6.3578587962962963E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
         <v>1288</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="1"/>
-      <c r="J4" s="80"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
         <v>1289</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="74" t="s">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="75" t="s">
         <v>1281</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="55" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="B17" s="55" t="s">
         <v>1283</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C17" s="55" t="s">
         <v>1284</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D17" s="55" t="s">
         <v>1285</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E17" s="55" t="s">
         <v>1286</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F17" s="55" t="s">
         <v>1210</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G17" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H17" s="55" t="s">
         <v>1287</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I17" s="55" t="s">
         <v>1213</v>
       </c>
-      <c r="J8" s="55" t="s">
+      <c r="J17" s="55" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="1"/>
-      <c r="J9" s="80"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="74" t="s">
-        <v>351</v>
-      </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J13" s="55" t="s">
+      <c r="K17" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L17" s="55" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="1"/>
-      <c r="J14" s="80"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="74" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-    </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B18" s="55">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C18" s="55">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0.622</v>
+      </c>
+      <c r="F18" s="55">
+        <v>1.0642</v>
+      </c>
+      <c r="G18" s="55">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="H18" s="55">
+        <v>0.37519999999999998</v>
+      </c>
+      <c r="I18" s="55">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="J18" s="79">
+        <v>2.1099189814814813E-3</v>
+      </c>
+      <c r="K18" s="55" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L18" s="37">
+        <v>2.5652083333333334E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
         <v>1288</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="1"/>
-      <c r="J19" s="80"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C19" s="81">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D19" s="81">
+        <v>0.48370000000000002</v>
+      </c>
+      <c r="E19" s="81">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="F19" s="81">
+        <v>0.6139</v>
+      </c>
+      <c r="G19" s="81">
+        <v>0.53490000000000004</v>
+      </c>
+      <c r="H19" s="81">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I19" s="81">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="J19" s="82">
+        <v>3.5156249999999993E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
         <v>1289</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="37"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="C20">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="E20" s="81">
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="F20" s="81">
+        <v>0.60660000000000003</v>
+      </c>
+      <c r="G20" s="81">
+        <v>0.54330000000000001</v>
+      </c>
+      <c r="H20" s="81">
+        <v>0.3412</v>
+      </c>
+      <c r="I20" s="81">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="J20" s="82">
+        <v>4.3775462962962968E-4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
-      <c r="B22" s="74" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-    </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+    </row>
+    <row r="23" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="55" t="s">
         <v>1283</v>
       </c>
@@ -14841,31 +15021,427 @@
       <c r="J23" s="55" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="K23" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L23" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B24" s="55">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="C24" s="55">
+        <v>0.92</v>
+      </c>
+      <c r="D24" s="55">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="E24" s="55">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="F24" s="55">
+        <v>1.2931999999999999</v>
+      </c>
+      <c r="G24" s="55">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="H24" s="55">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="I24" s="55">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="J24" s="79">
+        <v>9.2438657407407411E-4</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L24" s="37">
+        <v>3.7160416666666665E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="51" t="s">
         <v>1288</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="1"/>
-      <c r="J24" s="80"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="B25" s="81">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="C25" s="81">
+        <v>0.439</v>
+      </c>
+      <c r="D25" s="81">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="E25" s="81">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="F25" s="81">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="G25" s="81">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H25" s="81">
+        <v>0.3382</v>
+      </c>
+      <c r="I25" s="81">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="J25" s="82">
+        <v>1.6087731481481482E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="51" t="s">
         <v>1289</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="37"/>
+      <c r="B26" s="81">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="C26" s="81">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D26" s="81">
+        <v>0.46129999999999999</v>
+      </c>
+      <c r="E26" s="81">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="F26" s="81">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="G26" s="81">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="H26" s="81">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="I26" s="81">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="J26" s="82">
+        <v>1.0296875E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="50"/>
+      <c r="B28" s="75" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+    </row>
+    <row r="29" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="B29" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J29" s="55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K29" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L29" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B30" s="55">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C30" s="55">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D30" s="55">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="E30" s="55">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="F30" s="55">
+        <v>1.1534</v>
+      </c>
+      <c r="G30" s="55">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H30" s="55">
+        <v>0.35510000000000003</v>
+      </c>
+      <c r="I30" s="55">
+        <v>0.35610000000000003</v>
+      </c>
+      <c r="J30" s="79">
+        <v>2.1053587962962961E-3</v>
+      </c>
+      <c r="K30" s="55" t="s">
+        <v>1305</v>
+      </c>
+      <c r="L30" s="37">
+        <v>3.8366435185185183E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="51" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B31" s="81">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="C31" s="81">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D31" s="81">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="E31" s="81">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="F31" s="81">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="G31" s="81">
+        <v>0.4929</v>
+      </c>
+      <c r="H31" s="81">
+        <v>0.3357</v>
+      </c>
+      <c r="I31" s="81">
+        <v>0.3357</v>
+      </c>
+      <c r="J31" s="82">
+        <v>1.187037037037037E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="51" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B32" s="81">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="C32" s="81">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D32" s="81">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="E32" s="81">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="F32" s="81">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="G32" s="81">
+        <v>0.4929</v>
+      </c>
+      <c r="H32" s="81">
+        <v>0.3357</v>
+      </c>
+      <c r="I32" s="81">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="J32" s="82">
+        <v>1.187037037037037E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="50"/>
+      <c r="B34" s="75" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+    </row>
+    <row r="35" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B35" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="H35" s="55" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J35" s="55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K35" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L35" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B36" s="55">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C36" s="55">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="D36" s="55">
+        <v>0.34989999999999999</v>
+      </c>
+      <c r="E36" s="55">
+        <v>0.65</v>
+      </c>
+      <c r="F36" s="55">
+        <v>1.2123999999999999</v>
+      </c>
+      <c r="G36" s="55">
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="H36" s="55">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="I36" s="55">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="J36" s="79">
+        <v>2.101909722222222E-3</v>
+      </c>
+      <c r="K36" s="55" t="s">
+        <v>1306</v>
+      </c>
+      <c r="L36" s="37">
+        <v>4.8238425925925922E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="51" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B37">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C37">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D37">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="F37">
+        <v>0.59540000000000004</v>
+      </c>
+      <c r="G37">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="H37">
+        <v>0.31990000000000002</v>
+      </c>
+      <c r="I37">
+        <v>0.3352</v>
+      </c>
+      <c r="J37" s="37">
+        <v>6.6702546296296301E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="51" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B38" s="81">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C38" s="81">
+        <v>0.36</v>
+      </c>
+      <c r="D38" s="81">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="E38" s="81">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F38" s="81">
+        <v>1.2726999999999999</v>
+      </c>
+      <c r="G38" s="81">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="H38" s="81">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="I38" s="81">
+        <v>0.2853</v>
+      </c>
+      <c r="J38" s="82">
+        <v>5.465972222222223E-4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B17:J17"/>
+  <mergeCells count="8">
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B16:J16"/>
     <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B34:J34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14879,14 +15455,14 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>110001</v>
       </c>
@@ -14897,7 +15473,7 @@
         <v>411031</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -14908,7 +15484,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1164</v>
       </c>
@@ -14919,7 +15495,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1165</v>
       </c>
@@ -14930,7 +15506,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1166</v>
       </c>
@@ -14941,7 +15517,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1167</v>
       </c>
@@ -14952,7 +15528,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1168</v>
       </c>
@@ -14963,7 +15539,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1169</v>
       </c>
@@ -14974,7 +15550,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1170</v>
       </c>
@@ -14985,7 +15561,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>379</v>
       </c>
@@ -14996,7 +15572,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>110002</v>
       </c>
@@ -15007,7 +15583,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>370</v>
       </c>
@@ -15018,7 +15594,7 @@
         <v>414081</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1171</v>
       </c>
@@ -15029,7 +15605,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1172</v>
       </c>
@@ -15040,7 +15616,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1173</v>
       </c>
@@ -15051,7 +15627,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1174</v>
       </c>
@@ -15065,7 +15641,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1175</v>
       </c>
@@ -15076,7 +15652,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>695</v>
       </c>
@@ -15087,7 +15663,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1176</v>
       </c>
@@ -15098,7 +15674,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1177</v>
       </c>
@@ -15109,7 +15685,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>379</v>
       </c>
@@ -15120,7 +15696,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
         <v>1178</v>
@@ -15129,7 +15705,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>110004</v>
       </c>
@@ -15140,7 +15716,7 @@
         <v>459999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>370</v>
       </c>
@@ -15151,7 +15727,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>371</v>
       </c>
@@ -15162,7 +15738,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>372</v>
       </c>
@@ -15173,7 +15749,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>373</v>
       </c>
@@ -15184,7 +15760,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>374</v>
       </c>
@@ -15195,7 +15771,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>375</v>
       </c>
@@ -15206,7 +15782,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>376</v>
       </c>
@@ -15217,7 +15793,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>377</v>
       </c>
@@ -15228,7 +15804,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>378</v>
       </c>
@@ -15239,7 +15815,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>379</v>
       </c>
@@ -15250,7 +15826,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>110005</v>
       </c>
@@ -15261,7 +15837,7 @@
         <v>500039</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>370</v>
       </c>
@@ -15272,7 +15848,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>380</v>
       </c>
@@ -15283,7 +15859,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>381</v>
       </c>
@@ -15294,7 +15870,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>382</v>
       </c>
@@ -15305,7 +15881,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>383</v>
       </c>
@@ -15316,7 +15892,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -15327,7 +15903,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>385</v>
       </c>
@@ -15338,7 +15914,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>386</v>
       </c>
@@ -15349,7 +15925,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>387</v>
       </c>
@@ -15360,7 +15936,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>379</v>
       </c>
@@ -15371,7 +15947,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>110006</v>
       </c>
@@ -15382,7 +15958,7 @@
         <v>500043</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>370</v>
       </c>
@@ -15393,7 +15969,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>388</v>
       </c>
@@ -15404,7 +15980,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>389</v>
       </c>
@@ -15415,7 +15991,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>390</v>
       </c>
@@ -15426,7 +16002,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>391</v>
       </c>
@@ -15437,7 +16013,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>392</v>
       </c>
@@ -15448,7 +16024,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>393</v>
       </c>
@@ -15459,7 +16035,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>394</v>
       </c>
@@ -15470,7 +16046,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>395</v>
       </c>
@@ -15481,7 +16057,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>379</v>
       </c>
@@ -15492,7 +16068,7 @@
         <v>500044</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>110007</v>
       </c>
@@ -15503,7 +16079,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>370</v>
       </c>
@@ -15514,7 +16090,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>396</v>
       </c>
@@ -15525,7 +16101,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>397</v>
       </c>
@@ -15536,7 +16112,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>398</v>
       </c>
@@ -15547,7 +16123,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>399</v>
       </c>
@@ -15558,7 +16134,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>400</v>
       </c>
@@ -15569,7 +16145,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>401</v>
       </c>
@@ -15580,7 +16156,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>402</v>
       </c>
@@ -15591,7 +16167,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>379</v>
       </c>
@@ -15602,7 +16178,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>110008</v>
       </c>
@@ -15613,7 +16189,7 @@
         <v>500067</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>370</v>
       </c>
@@ -15624,7 +16200,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>403</v>
       </c>
@@ -15635,7 +16211,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>404</v>
       </c>
@@ -15646,7 +16222,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>405</v>
       </c>
@@ -15657,7 +16233,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>406</v>
       </c>
@@ -15668,7 +16244,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>407</v>
       </c>
@@ -15679,7 +16255,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>408</v>
       </c>
@@ -15690,7 +16266,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>409</v>
       </c>
@@ -15701,7 +16277,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>379</v>
       </c>
@@ -15712,7 +16288,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>110010</v>
       </c>
@@ -15723,7 +16299,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>370</v>
       </c>
@@ -15734,7 +16310,7 @@
         <v>500095</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>410</v>
       </c>
@@ -15745,7 +16321,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>411</v>
       </c>
@@ -15756,7 +16332,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>412</v>
       </c>
@@ -15767,7 +16343,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>413</v>
       </c>
@@ -15778,7 +16354,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>414</v>
       </c>
@@ -15789,7 +16365,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>415</v>
       </c>
@@ -15800,7 +16376,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>416</v>
       </c>
@@ -15811,7 +16387,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>379</v>
       </c>
@@ -15822,7 +16398,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>110011</v>
       </c>
@@ -15833,7 +16409,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>370</v>
       </c>
@@ -15844,7 +16420,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>417</v>
       </c>
@@ -15855,7 +16431,7 @@
         <v>510009</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>418</v>
       </c>
@@ -15866,7 +16442,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>419</v>
       </c>
@@ -15877,7 +16453,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>420</v>
       </c>
@@ -15888,7 +16464,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>421</v>
       </c>
@@ -15899,7 +16475,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>422</v>
       </c>
@@ -15910,7 +16486,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>423</v>
       </c>
@@ -15921,7 +16497,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>424</v>
       </c>
@@ -15932,7 +16508,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>379</v>
       </c>
@@ -15943,7 +16519,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>110012</v>
       </c>
@@ -15954,7 +16530,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>370</v>
       </c>
@@ -15965,7 +16541,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>425</v>
       </c>
@@ -15976,7 +16552,7 @@
         <v>510034</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>426</v>
       </c>
@@ -15987,7 +16563,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>427</v>
       </c>
@@ -15998,7 +16574,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>428</v>
       </c>
@@ -16009,7 +16585,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>429</v>
       </c>
@@ -16020,7 +16596,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>430</v>
       </c>
@@ -16031,7 +16607,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>431</v>
       </c>
@@ -16042,7 +16618,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>432</v>
       </c>
@@ -16053,7 +16629,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>379</v>
       </c>
@@ -16064,7 +16640,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>110013</v>
       </c>
@@ -16075,7 +16651,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -16086,7 +16662,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>433</v>
       </c>
@@ -16097,7 +16673,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>434</v>
       </c>
@@ -16108,7 +16684,7 @@
         <v>510035</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>435</v>
       </c>
@@ -16119,7 +16695,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>406</v>
       </c>
@@ -16130,7 +16706,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>436</v>
       </c>
@@ -16141,7 +16717,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>437</v>
       </c>
@@ -16152,7 +16728,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>438</v>
       </c>
@@ -16163,7 +16739,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>439</v>
       </c>
@@ -16174,7 +16750,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>379</v>
       </c>
@@ -16185,7 +16761,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>110014</v>
       </c>
@@ -16196,7 +16772,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>370</v>
       </c>
@@ -16207,7 +16783,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>440</v>
       </c>
@@ -16218,7 +16794,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>441</v>
       </c>
@@ -16229,7 +16805,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>442</v>
       </c>
@@ -16240,7 +16816,7 @@
         <v>510036</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>443</v>
       </c>
@@ -16251,7 +16827,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>444</v>
       </c>
@@ -16262,7 +16838,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>445</v>
       </c>
@@ -16273,7 +16849,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>446</v>
       </c>
@@ -16284,7 +16860,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>447</v>
       </c>
@@ -16295,7 +16871,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>379</v>
       </c>
@@ -16306,7 +16882,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>110015</v>
       </c>
@@ -16317,7 +16893,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>370</v>
       </c>
@@ -16328,7 +16904,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>448</v>
       </c>
@@ -16339,7 +16915,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>449</v>
       </c>
@@ -16350,7 +16926,7 @@
         <v>510037</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>450</v>
       </c>
@@ -16361,7 +16937,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>451</v>
       </c>
@@ -16372,7 +16948,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>452</v>
       </c>
@@ -16383,7 +16959,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>453</v>
       </c>
@@ -16394,7 +16970,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>454</v>
       </c>
@@ -16405,7 +16981,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>455</v>
       </c>
@@ -16416,7 +16992,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>456</v>
       </c>
@@ -16427,7 +17003,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>379</v>
       </c>
@@ -16438,7 +17014,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>110016</v>
       </c>
@@ -16449,7 +17025,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>370</v>
       </c>
@@ -16460,7 +17036,7 @@
         <v>510038</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>457</v>
       </c>
@@ -16471,7 +17047,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>458</v>
       </c>
@@ -16482,7 +17058,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>459</v>
       </c>
@@ -16493,7 +17069,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>460</v>
       </c>
@@ -16504,7 +17080,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>461</v>
       </c>
@@ -16515,7 +17091,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>462</v>
       </c>
@@ -16526,7 +17102,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>463</v>
       </c>
@@ -16537,7 +17113,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>464</v>
       </c>
@@ -16548,7 +17124,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>379</v>
       </c>
@@ -16559,7 +17135,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>110017</v>
       </c>
@@ -16570,7 +17146,7 @@
         <v>510040</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>370</v>
       </c>
@@ -16581,7 +17157,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>465</v>
       </c>
@@ -16592,7 +17168,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>466</v>
       </c>
@@ -16603,7 +17179,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>467</v>
       </c>
@@ -16614,7 +17190,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>468</v>
       </c>
@@ -16625,7 +17201,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>469</v>
       </c>
@@ -16636,7 +17212,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>470</v>
       </c>
@@ -16647,7 +17223,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>471</v>
       </c>
@@ -16658,7 +17234,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>472</v>
       </c>
@@ -16669,7 +17245,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>473</v>
       </c>
@@ -16680,7 +17256,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>379</v>
       </c>
@@ -16691,7 +17267,7 @@
         <v>510042</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>110041</v>
       </c>
@@ -16702,7 +17278,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>370</v>
       </c>
@@ -16713,7 +17289,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>474</v>
       </c>
@@ -16724,7 +17300,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>475</v>
       </c>
@@ -16735,7 +17311,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>476</v>
       </c>
@@ -16746,7 +17322,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>477</v>
       </c>
@@ -16757,7 +17333,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>478</v>
       </c>
@@ -16768,7 +17344,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>479</v>
       </c>
@@ -16779,7 +17355,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>480</v>
       </c>
@@ -16790,7 +17366,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>481</v>
       </c>
@@ -16801,7 +17377,7 @@
         <v>510045</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>482</v>
       </c>
@@ -16812,7 +17388,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>379</v>
       </c>
@@ -16823,7 +17399,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>111003</v>
       </c>
@@ -16834,7 +17410,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>370</v>
       </c>
@@ -16845,7 +17421,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>483</v>
       </c>
@@ -16856,7 +17432,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>484</v>
       </c>
@@ -16867,7 +17443,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>485</v>
       </c>
@@ -16878,7 +17454,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>486</v>
       </c>
@@ -16889,7 +17465,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>487</v>
       </c>
@@ -16900,7 +17476,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>488</v>
       </c>
@@ -16911,7 +17487,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>489</v>
       </c>
@@ -16922,7 +17498,7 @@
         <v>510046</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>490</v>
       </c>
@@ -16933,7 +17509,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>491</v>
       </c>
@@ -16944,7 +17520,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>379</v>
       </c>
@@ -16955,7 +17531,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>181374</v>
       </c>
@@ -16966,7 +17542,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>370</v>
       </c>
@@ -16977,7 +17553,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>492</v>
       </c>
@@ -16988,7 +17564,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>493</v>
       </c>
@@ -16999,7 +17575,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>494</v>
       </c>
@@ -17010,7 +17586,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>495</v>
       </c>
@@ -17021,7 +17597,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>496</v>
       </c>
@@ -17032,7 +17608,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>497</v>
       </c>
@@ -17043,7 +17619,7 @@
         <v>510047</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>498</v>
       </c>
@@ -17054,7 +17630,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>499</v>
       </c>
@@ -17065,7 +17641,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>500</v>
       </c>
@@ -17076,7 +17652,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>379</v>
       </c>
@@ -17087,7 +17663,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200048</v>
       </c>
@@ -17098,7 +17674,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>370</v>
       </c>
@@ -17109,7 +17685,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>501</v>
       </c>
@@ -17120,7 +17696,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>502</v>
       </c>
@@ -17131,7 +17707,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>503</v>
       </c>
@@ -17142,7 +17718,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>504</v>
       </c>
@@ -17153,7 +17729,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>505</v>
       </c>
@@ -17164,7 +17740,7 @@
         <v>522129</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>506</v>
       </c>
@@ -17175,7 +17751,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>507</v>
       </c>
@@ -17186,7 +17762,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>379</v>
       </c>
@@ -17197,7 +17773,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>200049</v>
       </c>
@@ -17208,7 +17784,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>370</v>
       </c>
@@ -17219,7 +17795,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>508</v>
       </c>
@@ -17230,7 +17806,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>509</v>
       </c>
@@ -17241,7 +17817,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>510</v>
       </c>
@@ -17252,7 +17828,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>511</v>
       </c>
@@ -17263,7 +17839,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>512</v>
       </c>
@@ -17274,7 +17850,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>437</v>
       </c>
@@ -17285,7 +17861,7 @@
         <v>556463</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>513</v>
       </c>
@@ -17296,7 +17872,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>514</v>
       </c>
@@ -17307,7 +17883,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>379</v>
       </c>
@@ -17318,7 +17894,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>200050</v>
       </c>
@@ -17329,7 +17905,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>370</v>
       </c>
@@ -17340,7 +17916,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>515</v>
       </c>
@@ -17351,7 +17927,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>516</v>
       </c>
@@ -17362,7 +17938,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>517</v>
       </c>
@@ -17373,7 +17949,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>518</v>
       </c>
@@ -17384,7 +17960,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>519</v>
       </c>
@@ -17395,7 +17971,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>520</v>
       </c>
@@ -17406,7 +17982,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>521</v>
       </c>
@@ -17417,7 +17993,7 @@
         <v>567496</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>522</v>
       </c>
@@ -17428,7 +18004,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>379</v>
       </c>
@@ -17439,7 +18015,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>200054</v>
       </c>
@@ -17450,7 +18026,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>370</v>
       </c>
@@ -17461,7 +18037,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>523</v>
       </c>
@@ -17472,7 +18048,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>524</v>
       </c>
@@ -17483,7 +18059,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>525</v>
       </c>
@@ -17494,7 +18070,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>526</v>
       </c>
@@ -17505,7 +18081,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>527</v>
       </c>
@@ -17516,7 +18092,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>528</v>
       </c>
@@ -17527,7 +18103,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>529</v>
       </c>
@@ -17538,7 +18114,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>530</v>
       </c>
@@ -17549,7 +18125,7 @@
         <v>591292</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>379</v>
       </c>
@@ -17560,7 +18136,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>202614</v>
       </c>
@@ -17571,7 +18147,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>370</v>
       </c>
@@ -17582,7 +18158,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>531</v>
       </c>
@@ -17593,7 +18169,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>532</v>
       </c>
@@ -17604,7 +18180,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>533</v>
       </c>
@@ -17615,7 +18191,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>534</v>
       </c>
@@ -17626,7 +18202,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>535</v>
       </c>
@@ -17637,7 +18213,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>536</v>
       </c>
@@ -17648,7 +18224,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>537</v>
       </c>
@@ -17659,7 +18235,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>538</v>
       </c>
@@ -17670,7 +18246,7 @@
         <v>769862</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>379</v>
       </c>
@@ -17681,7 +18257,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>205601</v>
       </c>
@@ -17692,7 +18268,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>370</v>
       </c>
@@ -17703,7 +18279,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>539</v>
       </c>
@@ -17714,7 +18290,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>540</v>
       </c>
@@ -17725,7 +18301,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>541</v>
       </c>
@@ -17736,7 +18312,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>542</v>
       </c>
@@ -17747,7 +18323,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>543</v>
       </c>
@@ -17758,7 +18334,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>497</v>
       </c>
@@ -17769,7 +18345,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>544</v>
       </c>
@@ -17780,7 +18356,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>545</v>
       </c>
@@ -17791,7 +18367,7 @@
         <v>799402</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>546</v>
       </c>
@@ -17802,7 +18378,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>379</v>
       </c>
@@ -17813,7 +18389,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>210051</v>
       </c>
@@ -17824,7 +18400,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>370</v>
       </c>
@@ -17835,7 +18411,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>547</v>
       </c>
@@ -17846,7 +18422,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>548</v>
       </c>
@@ -17857,7 +18433,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>549</v>
       </c>
@@ -17868,7 +18444,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>550</v>
       </c>
@@ -17879,7 +18455,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>551</v>
       </c>
@@ -17890,7 +18466,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>552</v>
       </c>
@@ -17901,7 +18477,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>553</v>
       </c>
@@ -17912,7 +18488,7 @@
         <v>826382</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>554</v>
       </c>
@@ -17923,7 +18499,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>379</v>
       </c>
@@ -17934,7 +18510,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>210052</v>
       </c>
@@ -17945,7 +18521,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>370</v>
       </c>
@@ -17956,7 +18532,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>555</v>
       </c>
@@ -17967,7 +18543,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>556</v>
       </c>
@@ -17978,7 +18554,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>557</v>
       </c>
@@ -17989,7 +18565,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>558</v>
       </c>
@@ -18000,7 +18576,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>559</v>
       </c>
@@ -18011,7 +18587,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>430</v>
       </c>
@@ -18022,7 +18598,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>560</v>
       </c>
@@ -18033,7 +18609,7 @@
         <v>826412</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>561</v>
       </c>
@@ -18044,7 +18620,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>379</v>
       </c>
@@ -18055,7 +18631,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>210053</v>
       </c>
@@ -18066,7 +18642,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>370</v>
       </c>
@@ -18077,7 +18653,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>562</v>
       </c>
@@ -18088,7 +18664,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>563</v>
       </c>
@@ -18099,7 +18675,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>564</v>
       </c>
@@ -18110,7 +18686,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>565</v>
       </c>
@@ -18121,7 +18697,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>566</v>
       </c>
@@ -18132,7 +18708,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>453</v>
       </c>
@@ -18143,7 +18719,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>567</v>
       </c>
@@ -18154,7 +18730,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>568</v>
       </c>
@@ -18165,7 +18741,7 @@
         <v>882654</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>569</v>
       </c>
@@ -18176,7 +18752,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>379</v>
       </c>
@@ -18187,7 +18763,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>210055</v>
       </c>
@@ -18198,7 +18774,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>370</v>
       </c>
@@ -18209,7 +18785,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>570</v>
       </c>
@@ -18220,7 +18796,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>571</v>
       </c>
@@ -18231,7 +18807,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>572</v>
       </c>
@@ -18242,7 +18818,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>573</v>
       </c>
@@ -18253,7 +18829,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>574</v>
       </c>
@@ -18264,7 +18840,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>453</v>
       </c>
@@ -18275,7 +18851,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>575</v>
       </c>
@@ -18286,7 +18862,7 @@
         <v>907001</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>576</v>
       </c>
@@ -18297,7 +18873,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>577</v>
       </c>
@@ -18308,7 +18884,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>379</v>
       </c>
@@ -18319,7 +18895,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>210056</v>
       </c>
@@ -18330,7 +18906,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>370</v>
       </c>
@@ -18341,7 +18917,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>578</v>
       </c>
@@ -18352,7 +18928,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>579</v>
       </c>
@@ -18363,7 +18939,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>580</v>
       </c>
@@ -18374,7 +18950,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>581</v>
       </c>
@@ -18385,7 +18961,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>582</v>
       </c>
@@ -18396,7 +18972,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>583</v>
       </c>
@@ -18407,7 +18983,7 @@
         <v>928901</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>584</v>
       </c>
@@ -18418,7 +18994,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>585</v>
       </c>
@@ -18429,7 +19005,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>379</v>
       </c>
@@ -18440,7 +19016,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>210057</v>
       </c>
@@ -18451,7 +19027,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>370</v>
       </c>
@@ -18462,7 +19038,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>586</v>
       </c>
@@ -18473,7 +19049,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>587</v>
       </c>
@@ -18484,7 +19060,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>588</v>
       </c>
@@ -18495,7 +19071,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>589</v>
       </c>
@@ -18506,7 +19082,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>590</v>
       </c>
@@ -18517,7 +19093,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>591</v>
       </c>
@@ -18528,7 +19104,7 @@
         <v>940328</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>592</v>
       </c>
@@ -18539,7 +19115,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>593</v>
       </c>
@@ -18550,7 +19126,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>379</v>
       </c>
@@ -18561,7 +19137,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>210058</v>
       </c>
@@ -18572,7 +19148,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>370</v>
       </c>
@@ -18583,7 +19159,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>594</v>
       </c>
@@ -18594,7 +19170,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>595</v>
       </c>
@@ -18605,7 +19181,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>596</v>
       </c>
@@ -18616,7 +19192,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>597</v>
       </c>
@@ -18627,7 +19203,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>598</v>
       </c>
@@ -18638,7 +19214,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>599</v>
       </c>
@@ -18649,7 +19225,7 @@
         <v>987736</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>600</v>
       </c>
@@ -18660,7 +19236,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>601</v>
       </c>
@@ -18671,7 +19247,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>602</v>
       </c>
@@ -18682,7 +19258,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>379</v>
       </c>
@@ -18693,7 +19269,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>210059</v>
       </c>
@@ -18704,7 +19280,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>370</v>
       </c>
@@ -18715,7 +19291,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>603</v>
       </c>
@@ -18726,7 +19302,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>604</v>
       </c>
@@ -18737,7 +19313,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>605</v>
       </c>
@@ -18748,7 +19324,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>606</v>
       </c>
@@ -18759,7 +19335,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>607</v>
       </c>
@@ -18770,7 +19346,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>608</v>
       </c>
@@ -18781,7 +19357,7 @@
         <v>998826</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>609</v>
       </c>
@@ -18792,7 +19368,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>610</v>
       </c>
@@ -18803,7 +19379,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>379</v>
       </c>
@@ -18814,7 +19390,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>210060</v>
       </c>
@@ -18825,7 +19401,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>370</v>
       </c>
@@ -18836,7 +19412,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>611</v>
       </c>
@@ -18847,7 +19423,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>612</v>
       </c>
@@ -18858,7 +19434,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>613</v>
       </c>
@@ -18869,7 +19445,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>614</v>
       </c>
@@ -18880,7 +19456,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>615</v>
       </c>
@@ -18888,7 +19464,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>497</v>
       </c>
@@ -18896,7 +19472,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>567</v>
       </c>
@@ -18904,7 +19480,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>616</v>
       </c>
@@ -18912,7 +19488,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>617</v>
       </c>
@@ -18920,7 +19496,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>379</v>
       </c>
@@ -18928,7 +19504,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>210061</v>
       </c>
@@ -18936,7 +19512,7 @@
         <v>410026</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -18944,7 +19520,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>618</v>
       </c>
@@ -18952,7 +19528,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>619</v>
       </c>
@@ -18960,7 +19536,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>620</v>
       </c>
@@ -18968,7 +19544,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>621</v>
       </c>
@@ -18976,7 +19552,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>622</v>
       </c>
@@ -18984,7 +19560,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>422</v>
       </c>
@@ -18992,7 +19568,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>623</v>
       </c>
@@ -19000,7 +19576,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>624</v>
       </c>
@@ -19008,7 +19584,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -19016,7 +19592,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>226051</v>
       </c>
@@ -19024,7 +19600,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>370</v>
       </c>
@@ -19032,7 +19608,7 @@
         <v>410027</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>625</v>
       </c>
@@ -19040,7 +19616,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>626</v>
       </c>
@@ -19048,7 +19624,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>627</v>
       </c>
@@ -19056,7 +19632,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>628</v>
       </c>
@@ -19064,7 +19640,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>629</v>
       </c>
@@ -19072,7 +19648,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>552</v>
       </c>
@@ -19080,7 +19656,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>630</v>
       </c>
@@ -19088,7 +19664,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>631</v>
       </c>
@@ -19096,7 +19672,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>379</v>
       </c>
@@ -19104,7 +19680,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>240846</v>
       </c>
@@ -19112,7 +19688,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>370</v>
       </c>
@@ -19120,7 +19696,7 @@
         <v>410028</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>632</v>
       </c>
@@ -19128,7 +19704,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>633</v>
       </c>
@@ -19136,7 +19712,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>634</v>
       </c>
@@ -19144,7 +19720,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>635</v>
       </c>
@@ -19152,7 +19728,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>636</v>
       </c>
@@ -19160,7 +19736,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>422</v>
       </c>
@@ -19168,7 +19744,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>637</v>
       </c>
@@ -19176,7 +19752,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>638</v>
       </c>
@@ -19184,7 +19760,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>379</v>
       </c>
@@ -19192,7 +19768,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>248510</v>
       </c>
@@ -19200,7 +19776,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>370</v>
       </c>
@@ -19208,7 +19784,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>639</v>
       </c>
@@ -19216,7 +19792,7 @@
         <v>410029</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>640</v>
       </c>
@@ -19224,7 +19800,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>641</v>
       </c>
@@ -19232,7 +19808,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>642</v>
       </c>
@@ -19240,7 +19816,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>643</v>
       </c>
@@ -19248,7 +19824,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>644</v>
       </c>
@@ -19256,7 +19832,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>645</v>
       </c>
@@ -19264,7 +19840,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>379</v>
       </c>
@@ -19272,7 +19848,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>290428</v>
       </c>
@@ -19280,7 +19856,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>370</v>
       </c>
@@ -19288,7 +19864,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>380</v>
       </c>
@@ -19296,7 +19872,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>646</v>
       </c>
@@ -19304,7 +19880,7 @@
         <v>410030</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>382</v>
       </c>
@@ -19312,7 +19888,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>647</v>
       </c>
@@ -19320,7 +19896,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>648</v>
       </c>
@@ -19328,7 +19904,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>422</v>
       </c>
@@ -19336,7 +19912,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>649</v>
       </c>
@@ -19344,7 +19920,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>650</v>
       </c>
@@ -19352,7 +19928,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>379</v>
       </c>
@@ -19360,7 +19936,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>303830</v>
       </c>
@@ -19368,7 +19944,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>370</v>
       </c>
@@ -19376,7 +19952,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>651</v>
       </c>
@@ -19384,7 +19960,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>652</v>
       </c>
@@ -19392,7 +19968,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>653</v>
       </c>
@@ -19400,7 +19976,7 @@
         <v>410032</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>654</v>
       </c>
@@ -19408,7 +19984,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>655</v>
       </c>
@@ -19416,7 +19992,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>453</v>
       </c>
@@ -19424,7 +20000,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>656</v>
       </c>
@@ -19432,7 +20008,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>657</v>
       </c>
@@ -19440,7 +20016,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>658</v>
       </c>
@@ -19448,7 +20024,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>379</v>
       </c>
@@ -19456,7 +20032,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>310062</v>
       </c>
@@ -19464,7 +20040,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>370</v>
       </c>
@@ -19472,7 +20048,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>659</v>
       </c>
@@ -19480,7 +20056,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>660</v>
       </c>
@@ -19488,7 +20064,7 @@
         <v>411021</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>661</v>
       </c>
@@ -19496,7 +20072,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>662</v>
       </c>
@@ -19504,7 +20080,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>663</v>
       </c>
@@ -19512,7 +20088,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>608</v>
       </c>
@@ -19520,7 +20096,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>664</v>
       </c>
@@ -19528,7 +20104,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>665</v>
       </c>
@@ -19536,7 +20112,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>379</v>
       </c>
@@ -19544,22 +20120,22 @@
         <v>942</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>379</v>
       </c>
@@ -19581,9 +20157,9 @@
       <selection pane="bottomRight" activeCell="S71" sqref="S71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1212</v>
       </c>
@@ -19591,7 +20167,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>366</v>
       </c>
@@ -19715,7 +20291,7 @@
       <c r="DI3" s="44"/>
       <c r="DJ3" s="44"/>
     </row>
-    <row r="4" spans="1:114" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:114" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>367</v>
       </c>
@@ -20059,7 +20635,7 @@
         <v>826382</v>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>1210</v>
       </c>
@@ -20403,7 +20979,7 @@
         <v>0.50632911392405</v>
       </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -20747,7 +21323,7 @@
         <v>0.493670886075949</v>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
         <v>368</v>
       </c>
@@ -21091,7 +21667,7 @@
         <v>0.24859211584875299</v>
       </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
         <v>1213</v>
       </c>
@@ -21435,7 +22011,7 @@
         <v>0.31840006195307002</v>
       </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>1211</v>
       </c>
@@ -21779,7 +22355,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1170</v>
       </c>
@@ -22120,7 +22696,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>1177</v>
       </c>
@@ -22410,7 +22986,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.2">
       <c r="N12" t="s">
         <v>456</v>
       </c>
@@ -22536,12 +23112,12 @@
       <c r="DI12" s="46"/>
       <c r="DJ12" s="46"/>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.2">
       <c r="CF14" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>366</v>
       </c>
@@ -22569,7 +23145,7 @@
       <c r="U15" s="77"/>
       <c r="V15" s="77"/>
     </row>
-    <row r="16" spans="1:114" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:114" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>367</v>
       </c>
@@ -22637,7 +23213,7 @@
         <v>998826</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>1210</v>
       </c>
@@ -22705,7 +23281,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
         <v>5</v>
       </c>
@@ -22773,7 +23349,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>368</v>
       </c>
@@ -22841,7 +23417,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="41" t="s">
         <v>1213</v>
       </c>
@@ -22909,7 +23485,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>1211</v>
       </c>
@@ -22977,7 +23553,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>973</v>
       </c>
@@ -23042,7 +23618,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>974</v>
       </c>
@@ -23092,7 +23668,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
         <v>1003</v>
       </c>
@@ -23106,7 +23682,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
         <v>366</v>
       </c>
@@ -23135,7 +23711,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="41" t="s">
         <v>367</v>
       </c>
@@ -23206,7 +23782,7 @@
         <v>826382</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
         <v>1210</v>
       </c>
@@ -23277,7 +23853,7 @@
         <v>0.50632911392405</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
         <v>5</v>
       </c>
@@ -23348,7 +23924,7 @@
         <v>0.493670886075949</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="41" t="s">
         <v>368</v>
       </c>
@@ -23419,7 +23995,7 @@
         <v>0.24859211584875299</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
         <v>1213</v>
       </c>
@@ -23490,7 +24066,7 @@
         <v>0.31840006195307002</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="41" t="s">
         <v>1211</v>
       </c>
@@ -23561,7 +24137,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>830</v>
       </c>
@@ -23629,7 +24205,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>831</v>
       </c>
@@ -23694,7 +24270,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>832</v>
       </c>

--- a/Exp_log.xlsx
+++ b/Exp_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hasegawa-lab/OneDrive - Japan Advanced Institute of Science and Technology/Documents/git/Shofi_Engagement-Model-LSTM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E987EF-E90C-D44D-893C-BACDDD14E0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7F1ECE-C6B0-8B45-9927-5779780EC0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37620" yWindow="-1260" windowWidth="28800" windowHeight="23900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22540" windowHeight="19420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -22,42 +22,78 @@
     <sheet name="PerSubject" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">PerSubject!$A$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">PerSubject!$A$29</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">PerSubject!$A$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">PerSubject!$A$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">PerSubject!$A$8</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">PerSubject!$B$4:$DJ$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">PerSubject!$B$5:$DJ$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">PerSubject!$B$6:$DJ$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">PerSubject!$B$7:$DJ$7</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">PerSubject!$B$8:$DJ$8</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">PerSubject!$A$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">PerSubject!$A$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">PerSubject!$A$30</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">PerSubject!$A$7</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">PerSubject!$A$8</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">PerSubject!$B$4:$BS$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">PerSubject!$B$5:$BS$5</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">PerSubject!$B$6:$BS$6</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">PerSubject!$B$7:$BS$7</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">PerSubject!$B$8:$BS$8</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">PerSubject!$A$17</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">PerSubject!$A$18</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">PerSubject!$A$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">PerSubject!$A$31</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">PerSubject!$A$20</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">PerSubject!$B$16:$V$16</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">PerSubject!$B$17:$V$17</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">PerSubject!$B$18:$V$18</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">PerSubject!$B$19:$V$19</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">PerSubject!$B$20:$V$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">PerSubject!$B$27:$W$27</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">PerSubject!$B$28:$W$28</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">PerSubject!$B$29:$W$29</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">PerSubject!$B$30:$W$30</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">PerSubject!$B$31:$W$31</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">PerSubject!$A$5</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">LSTMvsCNNvsML!$O$6:$O$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">LSTMvsCNNvsML!$P$5</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">LSTMvsCNNvsML!$P$5</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">LSTMvsCNNvsML!$P$6:$P$11</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">LSTMvsCNNvsML!$Q$5</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">LSTMvsCNNvsML!$Q$6:$Q$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">LSTMvsCNNvsML!$R$5</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">LSTMvsCNNvsML!$R$6:$R$11</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">LSTMvsCNNvsML!$S$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">LSTMvsCNNvsML!$S$6:$S$11</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">LSTMvsCNNvsML!$O$6:$O$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">LSTMvsCNNvsML!$P$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">LSTMvsCNNvsML!$P$6:$P$11</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">LSTMvsCNNvsML!$P$6:$P$11</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">LSTMvsCNNvsML!$Q$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">LSTMvsCNNvsML!$Q$6:$Q$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">LSTMvsCNNvsML!$R$5</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">LSTMvsCNNvsML!$R$6:$R$11</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">LSTMvsCNNvsML!$S$5</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">LSTMvsCNNvsML!$S$6:$S$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">LSTMvsCNNvsML!$O$6:$O$11</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">LSTMvsCNNvsML!$P$5</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">LSTMvsCNNvsML!$P$6:$P$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">LSTMvsCNNvsML!$Q$5</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">LSTMvsCNNvsML!$Q$5</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">LSTMvsCNNvsML!$Q$6:$Q$11</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">LSTMvsCNNvsML!$R$5</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">LSTMvsCNNvsML!$R$6:$R$11</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">LSTMvsCNNvsML!$S$5</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">LSTMvsCNNvsML!$S$6:$S$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">PerSubject!$A$28</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">PerSubject!$A$29</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">PerSubject!$A$30</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">PerSubject!$A$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">LSTMvsCNNvsML!$Q$6:$Q$11</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">PerSubject!$B$27:$W$27</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">PerSubject!$B$28:$W$28</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">PerSubject!$B$29:$W$29</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">PerSubject!$B$30:$W$30</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">PerSubject!$B$31:$W$31</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">PerSubject!$A$5</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">PerSubject!$A$6</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">PerSubject!$A$7</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">PerSubject!$A$8</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">PerSubject!$B$4:$DJ$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">LSTMvsCNNvsML!$R$5</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">PerSubject!$B$5:$DJ$5</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">PerSubject!$B$6:$DJ$6</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">PerSubject!$B$7:$DJ$7</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">PerSubject!$B$8:$DJ$8</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">PerSubject!$A$5</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">PerSubject!$A$6</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">PerSubject!$A$7</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">PerSubject!$A$8</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">PerSubject!$B$4:$BS$4</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">PerSubject!$B$5:$BS$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">LSTMvsCNNvsML!$R$6:$R$11</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">PerSubject!$B$6:$BS$6</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">PerSubject!$B$7:$BS$7</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">PerSubject!$B$8:$BS$8</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">PerSubject!$A$17</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">PerSubject!$A$18</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">PerSubject!$A$19</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">PerSubject!$A$20</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">PerSubject!$B$16:$V$16</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">PerSubject!$B$17:$V$17</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">PerSubject!$B$18:$V$18</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">LSTMvsCNNvsML!$S$5</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">PerSubject!$B$19:$V$19</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">PerSubject!$B$20:$V$20</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">LSTMvsCNNvsML!$S$6:$S$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">LSTMvsCNNvsML!$O$6:$O$11</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -75,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="1327">
   <si>
     <t>Date</t>
   </si>
@@ -4911,9 +4947,6 @@
     <t>Averaged frames (1 timestep)</t>
   </si>
   <si>
-    <t>Single validation</t>
-  </si>
-  <si>
     <t>5-fold Cross-Validation</t>
   </si>
   <si>
@@ -4939,6 +4972,69 @@
   </si>
   <si>
     <t>0.747 (0.068)</t>
+  </si>
+  <si>
+    <t>Single validation (SV)</t>
+  </si>
+  <si>
+    <t>LR-SV</t>
+  </si>
+  <si>
+    <t>CNN-SV</t>
+  </si>
+  <si>
+    <t>SingleLSTM-SV</t>
+  </si>
+  <si>
+    <t>StackedLSTM-SV</t>
+  </si>
+  <si>
+    <t>BiLSTM-SV</t>
+  </si>
+  <si>
+    <t>MultilayerLSTM-SV</t>
+  </si>
+  <si>
+    <t>LR-5kCV</t>
+  </si>
+  <si>
+    <t>CNN-5kCV</t>
+  </si>
+  <si>
+    <t>SingleLSTM-5kCV</t>
+  </si>
+  <si>
+    <t>StackedLSTM-5kCV</t>
+  </si>
+  <si>
+    <t>BiLSTM-5kCV</t>
+  </si>
+  <si>
+    <t>MultilayerLSTM-5kCV</t>
+  </si>
+  <si>
+    <t>Extraction Methods</t>
+  </si>
+  <si>
+    <t>OpenFace</t>
+  </si>
+  <si>
+    <t>Mediapipe</t>
+  </si>
+  <si>
+    <t>0.498 (0.007)</t>
+  </si>
+  <si>
+    <t>0.584 (0.043)</t>
+  </si>
+  <si>
+    <t>0.479 (0.010)</t>
+  </si>
+  <si>
+    <t>0.485 (0.016)</t>
+  </si>
+  <si>
+    <t>0.451 (0.021)</t>
   </si>
 </sst>
 </file>
@@ -5053,7 +5149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -5167,13 +5263,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5395,6 +5500,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -5419,34 +5543,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.31</cx:f>
+        <cx:f dir="row">_xlchart.v1.67</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.32</cx:f>
+        <cx:f dir="row">_xlchart.v1.68</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.31</cx:f>
+        <cx:f dir="row">_xlchart.v1.67</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.33</cx:f>
+        <cx:f dir="row">_xlchart.v1.69</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.31</cx:f>
+        <cx:f dir="row">_xlchart.v1.67</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.34</cx:f>
+        <cx:f dir="row">_xlchart.v1.70</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.31</cx:f>
+        <cx:f dir="row">_xlchart.v1.67</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.35</cx:f>
+        <cx:f dir="row">_xlchart.v1.71</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5500,7 +5624,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{65DEB3F8-50A4-2646-8163-B968FB8CFB85}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.27</cx:f>
+              <cx:f>_xlchart.v1.63</cx:f>
               <cx:v>MSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5512,7 +5636,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1A8C7262-C375-7345-9DA3-D6300EA5E28B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.64</cx:f>
               <cx:v>Accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5524,7 +5648,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C93A3D52-178B-7843-8501-2F47E0B84416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:f>_xlchart.v1.65</cx:f>
               <cx:v>F1-Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5536,7 +5660,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B69481D6-8BB3-6645-BC9C-ACBF227DBFE7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.66</cx:f>
               <cx:v>Fbeta</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5566,34 +5690,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.40</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.40</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
+        <cx:f dir="row">_xlchart.v1.42</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.40</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.40</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.44</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5647,7 +5771,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{412F6C93-C285-F847-9EC3-B9E5007E88F3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>MSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5659,7 +5783,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{04986ACB-3654-2741-9193-F62BF8544971}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.37</cx:f>
               <cx:v>Accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5671,7 +5795,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BB4A1AEE-DAFA-5247-8014-0C330D0E7EE9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>F1-Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5683,7 +5807,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7018F17A-CCC7-EE4F-8248-733C510258AA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.39</cx:f>
               <cx:v>Fbeta</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5713,34 +5837,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.58</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.23</cx:f>
+        <cx:f dir="row">_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.58</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.24</cx:f>
+        <cx:f dir="row">_xlchart.v1.60</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.58</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.25</cx:f>
+        <cx:f dir="row">_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.58</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.26</cx:f>
+        <cx:f dir="row">_xlchart.v1.62</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5794,7 +5918,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2326AB8D-B746-9A42-96FE-6B8FFB7D10EE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.54</cx:f>
               <cx:v>MSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5806,7 +5930,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EE3A5E32-D348-184B-B6D0-2AAE7165F954}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.55</cx:f>
               <cx:v>Accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5818,7 +5942,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{267D99D1-4CCB-D14F-954E-60B50D7C9FB6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.56</cx:f>
               <cx:v>F1-Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5830,7 +5954,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2F20C3A3-4325-BE4F-B874-F00C5F80EA5E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.57</cx:f>
               <cx:v>Fbeta</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5860,34 +5984,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.49</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.14</cx:f>
+        <cx:f dir="row">_xlchart.v1.50</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.49</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.15</cx:f>
+        <cx:f dir="row">_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.49</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.16</cx:f>
+        <cx:f dir="row">_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.49</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.17</cx:f>
+        <cx:f dir="row">_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5941,7 +6065,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6DDC30F7-A23F-9B46-9B0C-B176C18074CB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.45</cx:f>
               <cx:v>MSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5953,7 +6077,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FBD3A4B7-77CB-384B-9FC6-01DF4A66BEF0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v>Accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5965,7 +6089,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4BE737D5-5381-3C44-A934-1B057F292A86}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.47</cx:f>
               <cx:v>F1-Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5977,7 +6101,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C0DE674D-806B-0648-83B7-C25808FF48B8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.48</cx:f>
               <cx:v>Fbeta</cx:v>
             </cx:txData>
           </cx:tx>
@@ -14584,10 +14708,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90611C2D-F58B-4BFE-9CEC-1E66C3B42A8A}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14595,21 +14719,25 @@
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="50">
         <v>44931</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
       <c r="B3" s="74" t="s">
-        <v>1297</v>
+        <v>1306</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="74"/>
@@ -14620,10 +14748,10 @@
       <c r="I3" s="74"/>
       <c r="J3" s="74"/>
       <c r="K3" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="75" t="s">
         <v>1295</v>
@@ -14637,7 +14765,7 @@
       <c r="I4" s="75"/>
       <c r="J4" s="75"/>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="55" t="s">
         <v>1283</v>
       </c>
@@ -14666,13 +14794,31 @@
         <v>1282</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="P5" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="Q5" s="55" t="s">
+        <v>1284</v>
+      </c>
+      <c r="R5" s="55" t="s">
+        <v>1285</v>
+      </c>
+      <c r="S5" s="55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="V5" s="55" t="s">
+        <v>1285</v>
+      </c>
+      <c r="W5" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1296</v>
       </c>
@@ -14684,51 +14830,179 @@
         <v>0.32955400000000001</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J6" s="79">
         <v>2.6041666666666666E-6</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="L6" s="37">
         <v>1.9282407407407407E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
-        <v>1289</v>
-      </c>
+      <c r="M6" s="55" t="s">
+        <v>1320</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P6" s="55">
+        <v>0.52166699999999999</v>
+      </c>
+      <c r="Q6" s="55">
+        <v>0.52166699999999999</v>
+      </c>
+      <c r="R6" s="55">
+        <v>0.32955400000000001</v>
+      </c>
+      <c r="S6" s="37">
+        <v>2.6041666666666666E-6</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="V6" s="55">
+        <v>0.32955400000000001</v>
+      </c>
+      <c r="W6" s="37">
+        <v>2.6041666666666666E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="83" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B7" s="84">
+        <v>0.53</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85">
+        <v>0.33862399999999998</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I7" s="86" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J7" s="87">
+        <v>5.8217592592592599E-5</v>
+      </c>
+      <c r="K7" s="86" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L7" s="88">
+        <v>4.3085648148148144E-4</v>
+      </c>
+      <c r="M7" s="83" t="s">
+        <v>1321</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P7" s="55">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="Q7" s="55">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="R7" s="55">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="S7" s="79">
+        <v>1.5057986111111114E-3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="V7" s="55">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="W7" s="79">
+        <v>1.5057986111111114E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
       <c r="F8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P8" s="55">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="Q8" s="55">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="R8" s="55">
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="S8" s="79">
+        <v>2.1099189814814813E-3</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="V8" s="55">
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="W8" s="79">
+        <v>2.1099189814814813E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P9" s="55">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="Q9" s="55">
+        <v>0.92</v>
+      </c>
+      <c r="R9" s="55">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="S9" s="79">
+        <v>9.2438657407407411E-4</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="V9" s="55">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="W9" s="79">
+        <v>9.2438657407407411E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="75" t="s">
         <v>1293</v>
@@ -14741,8 +15015,32 @@
       <c r="H10" s="75"/>
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
-    </row>
-    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P10" s="55">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="Q10" s="55">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="R10" s="55">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="S10" s="79">
+        <v>2.1053587962962961E-3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1311</v>
+      </c>
+      <c r="V10" s="55">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="W10" s="79">
+        <v>2.1053587962962961E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="55" t="s">
         <v>1283</v>
       </c>
@@ -14771,13 +15069,37 @@
         <v>1282</v>
       </c>
       <c r="K11" s="55" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L11" s="55" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="O11" s="55" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P11" s="55">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="Q11" s="55">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="R11" s="55">
+        <v>0.34989999999999999</v>
+      </c>
+      <c r="S11" s="79">
+        <v>2.101909722222222E-3</v>
+      </c>
+      <c r="U11" s="55" t="s">
+        <v>1312</v>
+      </c>
+      <c r="V11" s="55">
+        <v>0.34989999999999999</v>
+      </c>
+      <c r="W11" s="79">
+        <v>2.101909722222222E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1296</v>
       </c>
@@ -14809,177 +15131,318 @@
         <v>1.5057986111111114E-3</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="L12" s="37">
         <v>6.3578587962962963E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
+      <c r="M12" s="55" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="83" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B13" s="83">
+        <v>0.629</v>
+      </c>
+      <c r="C13" s="83">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="D13" s="83">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="E13" s="83">
+        <v>0.64090000000000003</v>
+      </c>
+      <c r="F13" s="83">
+        <v>1.0038</v>
+      </c>
+      <c r="G13" s="83">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="H13" s="83">
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="I13" s="83">
+        <v>0.35110000000000002</v>
+      </c>
+      <c r="J13" s="89">
+        <v>1.0081481481481482E-3</v>
+      </c>
+      <c r="K13" s="83" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L13" s="88">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="M13" s="83" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="75" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="B16" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1314</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1315</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1316</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1317</v>
+      </c>
+      <c r="U16" s="55" t="s">
+        <v>1318</v>
+      </c>
+      <c r="W16" s="37"/>
+    </row>
+    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B17" s="55">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C17" s="55">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D17" s="55">
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0.622</v>
+      </c>
+      <c r="F17" s="55">
+        <v>1.0642</v>
+      </c>
+      <c r="G17" s="55">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="H17" s="55">
+        <v>0.37519999999999998</v>
+      </c>
+      <c r="I17" s="55">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="J17" s="79">
+        <v>2.1099189814814813E-3</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L17" s="37">
+        <v>2.5652083333333334E-3</v>
+      </c>
+      <c r="M17" s="72" t="s">
+        <v>1320</v>
+      </c>
+      <c r="O17" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="P17">
+        <v>0.502</v>
+      </c>
+      <c r="Q17" s="55">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="R17" s="55">
+        <v>0.82</v>
+      </c>
+      <c r="S17" s="55">
+        <v>0.82</v>
+      </c>
+      <c r="T17" s="55">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="U17" s="55">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="51" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
+      <c r="B18">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C18" s="81">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D18" s="81">
+        <v>0.48370000000000002</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="F18" s="81">
+        <v>0.6139</v>
+      </c>
+      <c r="G18" s="81">
+        <v>0.53490000000000004</v>
+      </c>
+      <c r="H18" s="81">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I18" s="81">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="J18" s="82">
+        <v>3.5156249999999993E-4</v>
+      </c>
+      <c r="M18" s="72"/>
+      <c r="O18" s="55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="P18" s="37">
+        <v>2.6041666666666666E-6</v>
+      </c>
+      <c r="Q18" s="79">
+        <v>1.5057986111111114E-3</v>
+      </c>
+      <c r="R18" s="79">
+        <v>2.1099189814814813E-3</v>
+      </c>
+      <c r="S18" s="79">
+        <v>9.2438657407407411E-4</v>
+      </c>
+      <c r="T18" s="79">
+        <v>2.1053587962962961E-3</v>
+      </c>
+      <c r="U18" s="79">
+        <v>2.101909722222222E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="51" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="75" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-    </row>
-    <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="B17" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I17" s="55" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K17" s="55" t="s">
-        <v>1300</v>
-      </c>
-      <c r="L17" s="55" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B19">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="C19">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="E19" s="81">
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="F19" s="81">
+        <v>0.60660000000000003</v>
+      </c>
+      <c r="G19" s="81">
+        <v>0.54330000000000001</v>
+      </c>
+      <c r="H19" s="81">
+        <v>0.3412</v>
+      </c>
+      <c r="I19" s="81">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="J19" s="82">
+        <v>4.3775462962962968E-4</v>
+      </c>
+      <c r="M19" s="72"/>
+      <c r="N19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="83" t="s">
         <v>1296</v>
       </c>
-      <c r="B18" s="55">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="C18" s="55">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="D18" s="55">
-        <v>0.37790000000000001</v>
-      </c>
-      <c r="E18" s="55">
-        <v>0.622</v>
-      </c>
-      <c r="F18" s="55">
-        <v>1.0642</v>
-      </c>
-      <c r="G18" s="55">
-        <v>0.55479999999999996</v>
-      </c>
-      <c r="H18" s="55">
-        <v>0.37519999999999998</v>
-      </c>
-      <c r="I18" s="55">
-        <v>0.37690000000000001</v>
-      </c>
-      <c r="J18" s="79">
-        <v>2.1099189814814813E-3</v>
-      </c>
-      <c r="K18" s="55" t="s">
-        <v>1303</v>
-      </c>
-      <c r="L18" s="37">
-        <v>2.5652083333333334E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B19">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="C19" s="81">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="D19" s="81">
-        <v>0.48370000000000002</v>
-      </c>
-      <c r="E19" s="81">
-        <v>0.51629999999999998</v>
-      </c>
-      <c r="F19" s="81">
-        <v>0.6139</v>
-      </c>
-      <c r="G19" s="81">
-        <v>0.53490000000000004</v>
-      </c>
-      <c r="H19" s="81">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="I19" s="81">
-        <v>0.33950000000000002</v>
-      </c>
-      <c r="J19" s="82">
-        <v>3.5156249999999993E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B20">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="C20">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D20">
-        <v>0.46739999999999998</v>
-      </c>
-      <c r="E20" s="81">
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="F20" s="81">
-        <v>0.60660000000000003</v>
-      </c>
-      <c r="G20" s="81">
-        <v>0.54330000000000001</v>
-      </c>
-      <c r="H20" s="81">
-        <v>0.3412</v>
-      </c>
-      <c r="I20" s="81">
-        <v>0.34320000000000001</v>
-      </c>
-      <c r="J20" s="82">
-        <v>4.3775462962962968E-4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="83">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="C20" s="83">
+        <v>0.13</v>
+      </c>
+      <c r="D20" s="83">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="E20" s="85">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="F20" s="85">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="G20" s="85">
+        <v>0.5746</v>
+      </c>
+      <c r="H20" s="85">
+        <v>0.2477</v>
+      </c>
+      <c r="I20" s="85">
+        <v>0.3145</v>
+      </c>
+      <c r="J20" s="90">
+        <v>7.1266203703703693E-4</v>
+      </c>
+      <c r="K20" s="83" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L20" s="88">
+        <v>2.9870833333333333E-3</v>
+      </c>
+      <c r="M20" s="91" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="75" t="s">
         <v>351</v>
@@ -14993,7 +15456,7 @@
       <c r="I22" s="75"/>
       <c r="J22" s="75"/>
     </row>
-    <row r="23" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="55" t="s">
         <v>1283</v>
       </c>
@@ -15022,13 +15485,13 @@
         <v>1282</v>
       </c>
       <c r="K23" s="55" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L23" s="55" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1296</v>
       </c>
@@ -15060,13 +15523,16 @@
         <v>9.2438657407407411E-4</v>
       </c>
       <c r="K24" s="55" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L24" s="37">
         <v>3.7160416666666665E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51" t="s">
         <v>1288</v>
       </c>
@@ -15098,7 +15564,7 @@
         <v>1.6087731481481482E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="51" t="s">
         <v>1289</v>
       </c>
@@ -15130,318 +15596,443 @@
         <v>1.0296875E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="75" t="s">
+    <row r="27" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="83" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B27" s="83">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="C27" s="83">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D27" s="83">
+        <v>0.37559999999999999</v>
+      </c>
+      <c r="E27" s="85">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="F27" s="85">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="G27" s="85">
+        <v>0.56879999999999997</v>
+      </c>
+      <c r="H27" s="85">
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="I27" s="85">
+        <v>0.3654</v>
+      </c>
+      <c r="J27" s="90">
+        <v>6.5567129629629623E-4</v>
+      </c>
+      <c r="K27" s="83" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L27" s="88">
+        <v>6.4407870370370374E-3</v>
+      </c>
+      <c r="M27" s="91" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="50"/>
+      <c r="B29" s="75" t="s">
         <v>1290</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-    </row>
-    <row r="29" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="B29" s="55" t="s">
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+    </row>
+    <row r="30" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="B30" s="55" t="s">
         <v>1283</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C30" s="55" t="s">
         <v>1284</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D30" s="55" t="s">
         <v>1285</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E30" s="55" t="s">
         <v>1286</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F30" s="55" t="s">
         <v>1210</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G30" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H30" s="55" t="s">
         <v>1287</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I30" s="55" t="s">
         <v>1213</v>
       </c>
-      <c r="J29" s="55" t="s">
+      <c r="J30" s="55" t="s">
         <v>1282</v>
       </c>
-      <c r="K29" s="55" t="s">
-        <v>1300</v>
-      </c>
-      <c r="L29" s="55" t="s">
+      <c r="K30" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="L30" s="55" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>1296</v>
       </c>
-      <c r="B30" s="55">
+      <c r="B31" s="55">
         <v>0.96899999999999997</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C31" s="55">
         <v>0.88500000000000001</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D31" s="55">
         <v>0.35670000000000002</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E31" s="55">
         <v>0.64319999999999999</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F31" s="55">
         <v>1.1534</v>
       </c>
-      <c r="G30" s="55">
+      <c r="G31" s="55">
         <v>0.52600000000000002</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H31" s="55">
         <v>0.35510000000000003</v>
       </c>
-      <c r="I30" s="55">
+      <c r="I31" s="55">
         <v>0.35610000000000003</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J31" s="79">
         <v>2.1053587962962961E-3</v>
       </c>
-      <c r="K30" s="55" t="s">
+      <c r="K31" s="55" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L31" s="37">
+        <v>3.8366435185185183E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="51" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B32" s="81">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="C32" s="81">
+        <v>0.442</v>
+      </c>
+      <c r="D32" s="81">
+        <v>0.4803</v>
+      </c>
+      <c r="E32" s="81">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F32" s="81">
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="G32" s="81">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="H32" s="81">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="I32" s="81">
+        <v>0.34110000000000001</v>
+      </c>
+      <c r="J32" s="82">
+        <v>1.4896180555555554E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="51" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B33" s="81">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="C33" s="81">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D33" s="81">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="E33" s="81">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="F33" s="81">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="G33" s="81">
+        <v>0.4929</v>
+      </c>
+      <c r="H33" s="81">
+        <v>0.3357</v>
+      </c>
+      <c r="I33" s="81">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="J33" s="82">
+        <v>1.187037037037037E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="83" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B34" s="83">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="C34" s="83">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D34" s="83">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="E34" s="85">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="F34" s="85">
+        <v>1.2502</v>
+      </c>
+      <c r="G34" s="85">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="H34" s="85">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="I34" s="85">
+        <v>0.29849999999999999</v>
+      </c>
+      <c r="J34" s="90">
+        <v>9.4717592592592585E-4</v>
+      </c>
+      <c r="K34" s="83" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L34" s="88">
+        <v>4.232777777777778E-3</v>
+      </c>
+      <c r="M34" s="91" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="50"/>
+      <c r="B36" s="75" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+    </row>
+    <row r="37" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="B37" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G37" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="H37" s="55" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J37" s="55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K37" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B38" s="55">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C38" s="55">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="D38" s="55">
+        <v>0.34989999999999999</v>
+      </c>
+      <c r="E38" s="55">
+        <v>0.65</v>
+      </c>
+      <c r="F38" s="55">
+        <v>1.2123999999999999</v>
+      </c>
+      <c r="G38" s="55">
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="H38" s="55">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="I38" s="55">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="J38" s="79">
+        <v>2.101909722222222E-3</v>
+      </c>
+      <c r="K38" s="55" t="s">
         <v>1305</v>
       </c>
-      <c r="L30" s="37">
-        <v>3.8366435185185183E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+      <c r="L38" s="37">
+        <v>4.8238425925925922E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="51" t="s">
         <v>1288</v>
       </c>
-      <c r="B31" s="81">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="C31" s="81">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D31" s="81">
-        <v>0.45850000000000002</v>
-      </c>
-      <c r="E31" s="81">
-        <v>0.54149999999999998</v>
-      </c>
-      <c r="F31" s="81">
-        <v>0.64249999999999996</v>
-      </c>
-      <c r="G31" s="81">
-        <v>0.4929</v>
-      </c>
-      <c r="H31" s="81">
-        <v>0.3357</v>
-      </c>
-      <c r="I31" s="81">
-        <v>0.3357</v>
-      </c>
-      <c r="J31" s="82">
-        <v>1.187037037037037E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="B39">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C39">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="E39">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="F39">
+        <v>0.59540000000000004</v>
+      </c>
+      <c r="G39">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="H39">
+        <v>0.31990000000000002</v>
+      </c>
+      <c r="I39">
+        <v>0.3352</v>
+      </c>
+      <c r="J39" s="37">
+        <v>6.6702546296296301E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="51" t="s">
         <v>1289</v>
       </c>
-      <c r="B32" s="81">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="C32" s="81">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D32" s="81">
-        <v>0.45850000000000002</v>
-      </c>
-      <c r="E32" s="81">
-        <v>0.54149999999999998</v>
-      </c>
-      <c r="F32" s="81">
-        <v>0.64249999999999996</v>
-      </c>
-      <c r="G32" s="81">
-        <v>0.4929</v>
-      </c>
-      <c r="H32" s="81">
-        <v>0.3357</v>
-      </c>
-      <c r="I32" s="81">
-        <v>0.33560000000000001</v>
-      </c>
-      <c r="J32" s="82">
-        <v>1.187037037037037E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
-      <c r="B34" s="75" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-    </row>
-    <row r="35" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="B35" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G35" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="H35" s="55" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I35" s="55" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J35" s="55" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K35" s="55" t="s">
-        <v>1300</v>
-      </c>
-      <c r="L35" s="55" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B40" s="81">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C40" s="81">
+        <v>0.36</v>
+      </c>
+      <c r="D40" s="81">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="E40" s="81">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F40" s="81">
+        <v>1.2726999999999999</v>
+      </c>
+      <c r="G40" s="81">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="H40" s="81">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="I40" s="81">
+        <v>0.2853</v>
+      </c>
+      <c r="J40" s="82">
+        <v>5.465972222222223E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="83" t="s">
         <v>1296</v>
       </c>
-      <c r="B36" s="55">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="C36" s="55">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="D36" s="55">
-        <v>0.34989999999999999</v>
-      </c>
-      <c r="E36" s="55">
-        <v>0.65</v>
-      </c>
-      <c r="F36" s="55">
-        <v>1.2123999999999999</v>
-      </c>
-      <c r="G36" s="55">
-        <v>0.50819999999999999</v>
-      </c>
-      <c r="H36" s="55">
-        <v>0.34389999999999998</v>
-      </c>
-      <c r="I36" s="55">
-        <v>0.34839999999999999</v>
-      </c>
-      <c r="J36" s="79">
-        <v>2.101909722222222E-3</v>
-      </c>
-      <c r="K36" s="55" t="s">
-        <v>1306</v>
-      </c>
-      <c r="L36" s="37">
-        <v>4.8238425925925922E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B37">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="C37">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="D37">
-        <v>0.47689999999999999</v>
-      </c>
-      <c r="E37">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="F37">
-        <v>0.59540000000000004</v>
-      </c>
-      <c r="G37">
-        <v>0.52939999999999998</v>
-      </c>
-      <c r="H37">
-        <v>0.31990000000000002</v>
-      </c>
-      <c r="I37">
-        <v>0.3352</v>
-      </c>
-      <c r="J37" s="37">
-        <v>6.6702546296296301E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="51" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B38" s="81">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="C38" s="81">
-        <v>0.36</v>
-      </c>
-      <c r="D38" s="81">
-        <v>0.29289999999999999</v>
-      </c>
-      <c r="E38" s="81">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="F38" s="81">
-        <v>1.2726999999999999</v>
-      </c>
-      <c r="G38" s="81">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="H38" s="81">
-        <v>0.24660000000000001</v>
-      </c>
-      <c r="I38" s="81">
-        <v>0.2853</v>
-      </c>
-      <c r="J38" s="82">
-        <v>5.465972222222223E-4</v>
+      <c r="B41" s="83">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C41" s="83">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="D41" s="83">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E41" s="85">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="F41" s="85">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="G41" s="85">
+        <v>0.5121</v>
+      </c>
+      <c r="H41" s="85">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="I41" s="85">
+        <v>0.3246</v>
+      </c>
+      <c r="J41" s="90">
+        <v>6.6E-4</v>
+      </c>
+      <c r="K41" s="83" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L41" s="88">
+        <v>4.232777777777778E-3</v>
+      </c>
+      <c r="M41" s="91" t="s">
+        <v>1321</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="M17:M19"/>
     <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B15:J15"/>
     <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B36:J36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
